--- a/top-100-tweets.xlsx
+++ b/top-100-tweets.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
   <si>
     <t xml:space="preserve">tweet_id</t>
   </si>
@@ -121,50 +121,34 @@
     <t xml:space="preserve">Es ist weniger als einen Monat her, dass der Chefredakteur der WELT @ulfposh die Bundesrepublik Deutschland als „Bundesclownsrepublik“ bezeichnet hat, weil die Bundesregierung die Energiewende vorantreiben und die Abhängigkeit von fossilen Energieträgern reduzieren wollte.</t>
   </si>
   <si>
-    <t xml:space="preserve">1527214056746229773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1527214056746229773</t>
+    <t xml:space="preserve">1505594052221280258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/ClaasGefroi/status/1505594052221280258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClaasGefroi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadt, Architektur, Urbanismus, Mode, Pop, Kunst, Politik. Redakteur und Journalist (konkret, Jacobin, taz, Zeit, Freitag usw.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-20T17:16:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mir tut #Habeck leid: Weil Union und SPD jahrelang die Energiewende verschleppten, muss er als Grüner jetzt auf Betteltour gehen, fossile Energien aus dunklen Quellen aufkaufen und wird dafür geprügelt. Kritisiert die GroKo-Parteien, nicht ihn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1503369461084352513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1503369461084352513</t>
   </si>
   <si>
     <t xml:space="preserve">Luisamneubauer</t>
   </si>
   <si>
     <t xml:space="preserve">climate activist #fridaysforfuture • geography student • writer • born 364 ppm, based in Berlin. mail: contact.luisa.neubauer@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-19T09:06:20.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein ganz normaler Tag im Klimakollaps:
-- Mit dem Tankrabatt kommt eine neue fossile Subvention
-- 12 neue LNG-Terminals beerdigen eine 1,5°-konforme Energiewende
-- die Deutsche Bank (größter deutscher Öl &amp;amp; Gas-Investor) feiert ihre Klimaziele
-Kurz: Wir müssen auf die Straße.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1505594052221280258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/ClaasGefroi/status/1505594052221280258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClaasGefroi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadt, Architektur, Urbanismus, Mode, Pop, Kunst, Politik. Redakteur und Journalist (konkret, Jacobin, taz, Zeit, Freitag usw.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-20T17:16:09.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mir tut #Habeck leid: Weil Union und SPD jahrelang die Energiewende verschleppten, muss er als Grüner jetzt auf Betteltour gehen, fossile Energien aus dunklen Quellen aufkaufen und wird dafür geprügelt. Kritisiert die GroKo-Parteien, nicht ihn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1503369461084352513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1503369461084352513</t>
   </si>
   <si>
     <t xml:space="preserve">2022-03-14T13:56:25.000Z</t>
@@ -197,46 +181,6 @@
     <t xml:space="preserve">Liebe Bundesregierung, zu den Verteidigungsaufgaben gehört auch die Unabhängigkeit von ausländischer Energie. Daher sollte mindestens die Hälfte des 100 Mrd. "Sondervermögens" für eine klimafreundliche, atom- und kohlefreie Energiewende aufgewendet werden, die uns autark macht.</t>
   </si>
   <si>
-    <t xml:space="preserve">1510546076624953351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/RZitelmann/status/1510546076624953351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RZitelmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ILOVECAPITALISM Kapitalismus ist nicht das Problem, sondern die Lösung. Official German profile | My english profile: @zitelmann_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03T09:13:43.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Lindner meint, der Ukraine-Krieg macht uns arm. Ich meine, die EZB-Nullzinspolitik, die verfehlte "Energiewende", die ideologische Zuwanderungspolitik und der Schuldentransfer in der EU machen uns arm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509896377098285058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/sascha_p/status/1509896377098285058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sascha_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read only account:
-My new home: https://t.co/0LcVdjlnmR
-My German newsletter/podcast https://t.co/MzVAX9jWmU
-Articles https://t.co/0KYXiBRSKh
-#StopMusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01T14:12:03.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiss nicht wieviele Parkplaetze es in 🇩🇪  vor Supermaerkten gibt, aber koennte man die nicht alle mit solchen Daechern versorgen oder ist das zu pragmatisch in Zeiten von Energiekrisen? #Energiewende https://t.co/jCV6UZHBvn</t>
-  </si>
-  <si>
     <t xml:space="preserve">1497293141476626446</t>
   </si>
   <si>
@@ -255,88 +199,274 @@
     <t xml:space="preserve">Verdammt nochmal. Wieso haben wir in den letzten 5 Jahren rund 300 Mrd. Euro für Importe von Erdgas und -Öl ausgegeben und Putins irre Aufrüstung gehen uns selber finanziert, während gleichzeitig hier bei uns Energiewende gebremst und Wertschöpfung verhindert worden ist?</t>
   </si>
   <si>
-    <t xml:space="preserve">1510541839740321792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1510541839740321792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03T08:56:53.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieselben Stimmen, die früher in jedem Windrad einen Angriff auf Freiheit &amp;amp; Wohlstand gesehen haben, loben jetzt die Energiewende. Cool. Ich frage mich nur leise, ob sie wissen wovon sie sprechen, wenn es nicht mal mehr für ein #Tempolimit reicht?
-Für was denn dann??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1511744242519056392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Stefan_Hajek/status/1511744242519056392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan_Hajek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Writer @ Germany's 1 business mag @wiwo | Author "Hajek's High Voltage" | #ElectricCar | #Battery | #Energy | #climate tech | #mobility | debunking fake🚎🚗🚇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06T16:34:48.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutschland nach 16 Jahren Merkel:
-* wirtschaftliche Abhängigkeit von China
-* Energieabhängigkeit von Russland 
-* militärische Abhängigkeit von den USA
-Energiewende gebremst, Infrastruktur kaputt, Bundeswehr kaputt, Schulen und Gesundheit darbend, Digitalisierung im Fax steckend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1514871154137354247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/JackKabey/status/1514871154137354247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JackKabey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Writer, author and publicist /
-https://t.co/XKL5TT5mDQ / 
-https://t.co/sjAj9Yp9wG / 
-https://t.co/QlO59BZbIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-15T07:40:02.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für was genau habt ihr all die Flüchtlinge nach Europa geholt, die Energiewende herbeigestümpert, jeden zur Impfung erpresst - wenn ihr jetzt die Welt an den Rand des dritten Weltkrieges führt? 
-Habt ihr den Verstand verloren?!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1529822345564565507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/M_Hundhausen/status/1529822345564565507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_Hundhausen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutscher Solarpreis, Sonnenenergie Erlangen e.V., Scientist for Future, 
-@Klimaliste, Wissenschaft in die Politik,
-Mitglied im Stadtrat Erlangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-26T13:50:44.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe mir letztes Jahr solche Solarplatten aufs Dach geschraubt und so ein Akku-dings installiert. Seitdem brauche ich kaum noch Strom vom EVU und liefere denen jede Menge.
-so geht Energiewende. Versteht das endlich mal! https://t.co/9RopGYUVpF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510716405657735169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1510716405657735169</t>
+    <t xml:space="preserve">1504741075482824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1504741075482824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micha_bloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🇪🇺 Member of European Parliament | @GreensEFA | 💯 Working on European Climate Action, Emissions Trading System &amp; #FitFor55 | #ClimateJustice | from Stuttgart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-18T08:46:43.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyvan Esfarjani, Intel-Vorstand zur Entscheidung in Magdeburg: 
+"Wir haben über 80 Standorte überall in Europa geprüft, ausschlaggebend war die Verfügbarkeit von Infrastruktur - die beiden Fabriken benötigen zu hundert Prozent Ökostrom (...)."
+Grüße an Energiewende-Blockierer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501151139831721990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/heuteshow/status/1501151139831721990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heuteshow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachrichtensatire mit Oliver Welke: Freitags im @ZDF, täglich im Netz. #heuteshow | Impressum &amp; Netiquette: https://t.co/sbxa2Vq1cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T11:01:36.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russland droht erstmals mit einem Gaslieferstopp durch Nord Stream 1.
+Energiewende durch Energieende?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497883786314498048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/robert_fietzke/status/1497883786314498048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robert_fietzke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugendkoordinator @dielinkelsa, Co-Vorsitzender @dielinkemd, Lehrbeauftragter @hs_magdeburg, Kolumnist @Seenotrettung, Sprecher @md_solidarisch, Antifaschist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T10:38:18.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schade, dass in den letzten Jahren keine 100 Milliarden € #Sondervermögen für die Energiewende und geringere Abhängigkeit von fossilen Energieträgern gab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499313468100517893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/JanAlbrecht/status/1499313468100517893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JanAlbrecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorstand | president @boell_stiftung.
+MdEP a.D. | former MEP @GreensEFA.
+Minister a.D. | former minister @melund_sh.
+Hier privat | private views here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-03T09:19:21.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dem Augenblick, in dem wir erkennen müssen, dass ein schneller Umstieg auf Erneuerbare Energien die beste Sicherheitsgarantie für Europa ist und jeder Euro in die Energiewende eine Investition in Wohlstand und Stabilität darstellt, stellen #CDU-Politiker #Klimaschutz in Frage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505458726899261440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/gri_mm/status/1505458726899261440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gri_mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🦉| Co-Gründer @krautreporter | Solarpunk | wagmi (sort of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-20T08:18:25.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIESE ENERGIEWENDE!!1!
+beschert uns an tagen wie diesen den billigsten strom mitteleuropas https://t.co/VtJAb611OB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497964931748093957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/sixtus/status/1497964931748093957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sixtus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filmemacher: https://t.co/86BMnq8mya ✨ Drehbuchautor: https://t.co/MJr8liyRF6 📺 Buchautor: https://t.co/tzFmgarFrt 🚀 Fotograf: https://t.co/wSn7gJZw5y 📷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T16:00:45.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möglicherweise wäre es tatsächlich friedensfördernder, 100 Milliarden Euro in die Energiewende zu stecken, komplett unabhängig von Russland zu werden und nebenbei noch was für die Klimarettung zu tun, statt die ineffiziente und mit Nazi-Strukturen belastete Bundeswehr zu päppeln?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497334606416297990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/NiemaMovassat/status/1497334606416297990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NiemaMovassat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurist, Doktorand, Referendar in Berlin, Mitglied im Parteivorstand @dielinke. Bundestagsabgeordneter 2009-2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T22:16:03.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und jetzt stellt euch mal vor, wir hätten in den letzten 10 Jahren massiv die #Energiewende vorangetrieben statt #Nordstream2 zu bauen und uns immer abhängiger und abhängiger von russischem Gas zu machen...
+#Russland #Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497520604844597249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/berndulrich/status/1497520604844597249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berndulrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An den Mauern der Untätigkeit staut sich der Wahnsinn (ZEIT, vegan, Schalker, Klimarealist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26T10:35:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn jetzt ausgerechnet die #CDU die all die Jahre die Verteidigungsministerin gestellt hat und #NordStream2 mitgetragen hat und die fossile Abhängigkeit von Russland durch unterlassene Energiewende zu verantworten hat, die Regierung kritisiert, das ist schon arg dreist https://t.co/ILwIGbnCAj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dass der ukrainische Präsident Anlass zu großem Dank für Frankreich hat, nicht für Deutschland in dieser Situation, das ist beklemmend - und begründet. Stolz können wir darauf wahrlich nicht sein. Die Bundesregierung schon mal gar nicht. 
+#WeStandWithUkraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497895034389250050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/NiemaMovassat/status/1497895034389250050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T11:23:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und jetzt stellt euch vor, #Scholz hätte heute angekündigt 100 Milliarden Euro sofort in die #Energiewende zu stecken und uns so von Russlands Gas unabhängig zu machen...das würde #Putin tatsächlich härter treffen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499740532599308305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CKemfert/status/1499740532599308305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKemfert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor Energy Economics and Energy Policy Deutsches Institut für Wirtschaftsforschung German Institute for Economic Research and Leuphana University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T13:36:21.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein sofortiges #Embargo gehen russische Energielieferungen ist dringend notwendig, damit nicht nooh mehr Geld in die russische Kriegskasse fließt. Es ist nicht einfach zu kompensieren, aber nötig. Nur erneuerbare Energien #Energiewende schaffen #Frieden https://t.co/SJKEMA1Qji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499694719596699648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/maewald/status/1499694719596699648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maewald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beruf: Krisenmanager, bei und für Ewald &amp; Rössing, Krisenmanagement. Beiratsvorsitz beim @Bundesblock und @KI_Verband. Meinungen sind so gemeint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T10:34:18.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sehr ich es mir auch anders wünsche: Es ist wahrscheinlich, dass dieser Konflikt noch sehr lange dauern wird. Wir müssen deshalb ehrlich damit beginnen, mit den Folgen zu planen.
+1. Die Energiewende muss mit einem historischen, nationalen Kraftakt beschleunigt werden
+1/x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497329002951839746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/mattjcan/status/1497329002951839746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mattjcan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT ZERO ... MORE JOBS, MORE DAMS, MORE MANUFACTURING
+Authorised by Matt Canavan, LNP, 34 East St, Rockhampton Qld 4700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T21:53:47.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany has the largest renewable energy program in the world, the Energiewende.
+Germany has spent more than $250 billion in green subsidies over the past decade and they have become MORE dependent on Russian gas over this time. 
+Renewable energy just makes a country weaker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505784067190669313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/alf_frommer/status/1505784067190669313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alf_frommer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Creative Director &amp; Privatier. Autor im finebooksverlag – follow me on https://t.co/tffseW52MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-21T05:51:12.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grünen müssen ausbügeln, dass 16 Jahre CDU/SPD/FDP Regierungen die Energiewende komplett verschlafen haben. Mehr noch: sie sabotieren bis jetzt den Ausbau von Wind- und Sonne, also die Energien, die uns wirklich unabhängig machen.
+Und was BILD draus macht: https://t.co/XtwWkhlhSr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499059601882427404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1499059601882427404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hornschild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensch • Stadtrat in Erlangen 🏡 🚲🌳 @Klimaliste @KlimalisteER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-02T16:30:34.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte lasst ein Herz da, um @Markus_Soeder wissen zu lassen, dass er sich mit seiner Windkraft-Blockade zum verlängerten Arm von Putin macht. Mit der unterlassenen Energiewende verhält er sich maximal unsolidarisch gegenüber der #Ukraine 🇺🇦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502194378378551297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1502194378378551297</t>
   </si>
   <si>
     <t xml:space="preserve">VQuaschning</t>
@@ -349,557 +479,6 @@
 🎧Podcaster</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-04-03T20:30:33.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei #Annewill fordert @Markus_Soeder @CSU eine schnellere Unabhängigkeit von Öl und #Gas. Aber #Bayern boykottiert die #Energiewende und hat letztes Jahr gerade einmal 8 #Windkraftanlagen gebaut. Wo soll der Ersatz herkommen? Durch den Weiterbetrieb von 3 ollen Kernkraftwerken?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1504741075482824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1504741075482824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micha_bloss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🇪🇺 Member of European Parliament | @GreensEFA | 💯 Working on European Climate Action, Emissions Trading System &amp; #FitFor55 | #ClimateJustice | from Stuttgart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-18T08:46:43.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyvan Esfarjani, Intel-Vorstand zur Entscheidung in Magdeburg: 
-"Wir haben über 80 Standorte überall in Europa geprüft, ausschlaggebend war die Verfügbarkeit von Infrastruktur - die beiden Fabriken benötigen zu hundert Prozent Ökostrom (...)."
-Grüße an Energiewende-Blockierer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1501151139831721990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/heuteshow/status/1501151139831721990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heuteshow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachrichtensatire mit Oliver Welke: Freitags im @ZDF, täglich im Netz. #heuteshow | Impressum &amp; Netiquette: https://t.co/sbxa2Vq1cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-08T11:01:36.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russland droht erstmals mit einem Gaslieferstopp durch Nord Stream 1.
-Energiewende durch Energieende?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509852446461419521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/waldecknelly/status/1509852446461419521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waldecknelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(she/her) 1,5 Grad Ultra &amp; Landtagsabgeordnete im echten Norden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01T11:17:29.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klingt wie ein Aprilscherz, ist aber keiner: Die @FDP_SH will keine Fläche für Windkraft ausweisen. Ihr redet gern davon die Bevölkerung mitzunehmen beim Klimaschutz, die ist zu 92% dafür. Also macht ihr weder Energiewende noch Bevölkerung mitnehmen, sondern bremst Klimaschutz https://t.co/Bszngf4rYd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497883786314498048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/robert_fietzke/status/1497883786314498048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robert_fietzke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jugendkoordinator @dielinkelsa, Co-Vorsitzender @dielinkemd, Lehrbeauftragter @hs_magdeburg, Kolumnist @Seenotrettung, Sprecher @md_solidarisch, Antifaschist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-27T10:38:18.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schade, dass in den letzten Jahren keine 100 Milliarden € #Sondervermögen für die Energiewende und geringere Abhängigkeit von fossilen Energieträgern gab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499313468100517893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/JanAlbrecht/status/1499313468100517893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JanAlbrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorstand | president @boell_stiftung.
-MdEP a.D. | former MEP @GreensEFA.
-Minister a.D. | former minister @melund_sh.
-Hier privat | private views here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-03T09:19:21.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In dem Augenblick, in dem wir erkennen müssen, dass ein schneller Umstieg auf Erneuerbare Energien die beste Sicherheitsgarantie für Europa ist und jeder Euro in die Energiewende eine Investition in Wohlstand und Stabilität darstellt, stellen #CDU-Politiker #Klimaschutz in Frage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1505458726899261440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/gri_mm/status/1505458726899261440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gri_mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🦉| Co-Gründer @krautreporter | Solarpunk | wagmi (sort of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-20T08:18:25.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIESE ENERGIEWENDE!!1!
-beschert uns an tagen wie diesen den billigsten strom mitteleuropas https://t.co/VtJAb611OB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1511946617477337090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/alexstubb/status/1511946617477337090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexstubb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Director &amp; Professor @STGEUI. Chair @cmioffice. Former Prime-, Finance- &amp; Foreign Minister of Finland (2008-16). Bookworm. PhD LSE. Sportsnut. Sub-9.30 Ironman.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-07T05:58:58.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to shout from the sidelines, but sad to see that Germany did not do a Zeitenwende on Energiewende. 
-Achievements of the anti-nuclear lobby since the 1970s:
-1. Nuclear technology underdeveloped.
-2. Fossile fuels overused.
-3. Climate change accelerated.
-4. Russian energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497964931748093957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/sixtus/status/1497964931748093957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sixtus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filmemacher: https://t.co/86BMnq8mya ✨ Drehbuchautor: https://t.co/MJr8liyRF6 📺 Buchautor: https://t.co/tzFmgarFrt 🚀 Fotograf: https://t.co/wSn7gJZw5y 📷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-27T16:00:45.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Möglicherweise wäre es tatsächlich friedensfördernder, 100 Milliarden Euro in die Energiewende zu stecken, komplett unabhängig von Russland zu werden und nebenbei noch was für die Klimarettung zu tun, statt die ineffiziente und mit Nazi-Strukturen belastete Bundeswehr zu päppeln?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497334606416297990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/NiemaMovassat/status/1497334606416297990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NiemaMovassat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurist, Doktorand, Referendar in Berlin, Mitglied im Parteivorstand @dielinke. Bundestagsabgeordneter 2009-2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-25T22:16:03.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Und jetzt stellt euch mal vor, wir hätten in den letzten 10 Jahren massiv die #Energiewende vorangetrieben statt #Nordstream2 zu bauen und uns immer abhängiger und abhängiger von russischem Gas zu machen...
-#Russland #Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1517098582813331649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Alice_Weidel/status/1517098582813331649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice_Weidel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraktionsvorsitzende der @AfDimBundestag | Stellvertretende AfD-Bundessprecherin | Landessprecherin AfD Baden-Württemberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-21T11:11:03.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Leidtragenden sind nicht die Politiker, die die Kosten für #Strom und #Kraftstoff mit ihrer irrwitzigen #Energiewende künstlich in die Höhe schnellen lassen, sondern die Bürger, die als Endkunden den Löwenanteil der Mehrkosten zu tragen haben. https://t.co/DoxB6fDtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1519596046573256706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MarcoPVogt/status/1519596046573256706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarcoPVogt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eine freiheitlich-konservative Stimme*
-konsequent anti-totalitär*🇩🇪zuerst
-mit starker Sympathie für 🇺🇲 und 🇮🇱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-28T08:35:04.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warum #AfD wählen? Weil sie bei allen zentralen Themen Recht behalten hat. Von Euro Politik/Inflation über Asylzuwanderung bis zu Energiewende und Coronapolitik/Impfung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497520604844597249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/berndulrich/status/1497520604844597249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berndulrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An den Mauern der Untätigkeit staut sich der Wahnsinn (ZEIT, vegan, Schalker, Klimarealist)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-26T10:35:09.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn jetzt ausgerechnet die #CDU die all die Jahre die Verteidigungsministerin gestellt hat und #NordStream2 mitgetragen hat und die fossile Abhängigkeit von Russland durch unterlassene Energiewende zu verantworten hat, die Regierung kritisiert, das ist schon arg dreist https://t.co/ILwIGbnCAj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dass der ukrainische Präsident Anlass zu großem Dank für Frankreich hat, nicht für Deutschland in dieser Situation, das ist beklemmend - und begründet. Stolz können wir darauf wahrlich nicht sein. Die Bundesregierung schon mal gar nicht. 
-#WeStandWithUkraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497895034389250050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/NiemaMovassat/status/1497895034389250050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-27T11:23:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Und jetzt stellt euch vor, #Scholz hätte heute angekündigt 100 Milliarden Euro sofort in die #Energiewende zu stecken und uns so von Russlands Gas unabhängig zu machen...das würde #Putin tatsächlich härter treffen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1516547134698442755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/anders_aslund/status/1516547134698442755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anders_aslund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economist &amp; author. Russia, Ukraine &amp; Eastern Europe. Read my latest book: "Russia's Crony Capitalism" https://t.co/ZqmWMRSMf9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-19T22:39:47.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Germany's energy policy is the biggest scandal in Europe. Through her "Energiewende" in 2011, Merkel demolished Germany's nuclear power out of sheer populism. Instead, she opted for dirty lignite &amp;amp; Russian gas. Truly awful in both regards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1518275203909959681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MieruchMario/status/1518275203909959681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MieruchMario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipl.-Ing.(BA) Mechatronik | industrial automation | kämpft für das freie Mandat | Bundesvorsitzender BFA e.V. | DIG Berlin/BBG |
-Glaubwürdigkeit &amp; Integrität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-24T17:06:31.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riesige Klimaanlagen für die #wm2022 in #Katar, Schneekanonen zu #Olympia in China und in 🇩🇪 sollen wir das Thermostat runterdrehen, nicht mehr Auto fahren und nachts den Router ausschalten.
-Es ist wohl keine Frage mehr, ob wir von Verrückten umgeben sind.
-#Energiewende https://t.co/269J51sMtq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499740532599308305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/CKemfert/status/1499740532599308305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKemfert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor Energy Economics and Energy Policy Deutsches Institut für Wirtschaftsforschung German Institute for Economic Research and Leuphana University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-04T13:36:21.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein sofortiges #Embargo gehen russische Energielieferungen ist dringend notwendig, damit nicht nooh mehr Geld in die russische Kriegskasse fließt. Es ist nicht einfach zu kompensieren, aber nötig. Nur erneuerbare Energien #Energiewende schaffen #Frieden https://t.co/SJKEMA1Qji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507684377123344386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/RaykAnders/status/1507684377123344386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RaykAnders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mein neues Buch 'Der Barbar in uns muss Liebe finden':
-https://t.co/CQ50FU1E6v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26T11:42:21.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man kann #Merkel sympathisch finden aber Historiker werden nicht gütig zu ihr sein. 16 Jahre Stillstand. Energiewende verschleppt, Digitalisierung verschlafen, Abhängigkeit von Russland erhöht, Erdogan gestärkt, mit asymmetrischem Wahlkampf Demokratie beschädigt. Katastrophe. https://t.co/DfVqYA3Rgg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicht wenige im politischen Berlin fordern nun, dass die 16 Jahre #Kanzlerschaft von Angela #Merkel neu bewertet werden müssen, unter ihnen nicht nur Gegner, sondern auch ihr zuvor durchaus Wohlgesonnene. https://t.co/gDlUz3B3zF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499694719596699648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/maewald/status/1499694719596699648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maewald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beruf: Krisenmanager, bei und für Ewald &amp; Rössing, Krisenmanagement. Beiratsvorsitz beim @Bundesblock und @KI_Verband. Meinungen sind so gemeint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-04T10:34:18.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So sehr ich es mir auch anders wünsche: Es ist wahrscheinlich, dass dieser Konflikt noch sehr lange dauern wird. Wir müssen deshalb ehrlich damit beginnen, mit den Folgen zu planen.
-1. Die Energiewende muss mit einem historischen, nationalen Kraftakt beschleunigt werden
-1/x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1519204061781839872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/BMWK/status/1519204061781839872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMWK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktuelles aus dem Bundesministerium für Wirtschaft und Klimaschutz. Impressum &amp; Datenschutz: https://t.co/kcooMtaJc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-27T06:37:28.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@iljahpunkt Keine Sorge: Wir arbeiten parallel weiter an der Energiewende. Wir sprechen nur aktuell nicht so viel darüber, weil der Informationsbedarf der Öffentlichkeit über unseren Umgang mit den Auswirkungen des russischen Angrifsskrieges auf die Ukraine größer ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530986495452094467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1530986495452094467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-29T18:56:39.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es war mal ein #Osterpaket für mehr Tempo bei #Energiewende und #Klimaschutz angekündigt. Jetzt ist bald Pfingsten und wir haben Tankrabatte und ein LNG-Beschleunigungsgesetz. Nur keine Eile, lieber @OlafScholz und liebes @BMWK, der #Klimaschutz hat ja noch Zeit +Ironie Ende+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507542610138869767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/electroheinz/status/1507542610138869767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electroheinz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">💙💛
-_____
-Twitter = https://t.co/3xo9eB3GVg
-Mastodon =  https://t.co/mM76LDSFiZ…
-_____</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26T02:19:01.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (!) Jahre #Merkel zerfallen gerade zu Staub.
-Jedes wichtige Thema hat sie liegenlassen und verpennt.
-Von der Energiewende hat sie nur geredet. In Wahrheit hat #Altmaier sie gekillt, und unsere fossile Abhängigkeit stieg.
-Digitalisierung? Nichts. Wir haben Fax aus den 90ern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1526831598427152384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MauriceHoefgen/status/1526831598427152384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-18T07:46:34.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ökonomen, die uns jahrelang mit ihren Micky-Mouse-Modellen erklärt haben, dass für Investitionen in die Energiewende kein Geld da ist, wollen jetzt die Leute länger schuften lassen, weil INFLATION? Zynisch. https://t.co/UQ5l4JIaPp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1497329002951839746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/mattjcan/status/1497329002951839746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mattjcan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT ZERO ... MORE JOBS, MORE DAMS, MORE MANUFACTURING
-Authorised by Matt Canavan, LNP, 34 East St, Rockhampton Qld 4700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-25T21:53:47.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany has the largest renewable energy program in the world, the Energiewende.
-Germany has spent more than $250 billion in green subsidies over the past decade and they have become MORE dependent on Russian gas over this time. 
-Renewable energy just makes a country weaker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1505784067190669313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/alf_frommer/status/1505784067190669313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alf_frommer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive Creative Director &amp; Privatier. Autor im finebooksverlag – follow me on https://t.co/tffseW52MQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-21T05:51:12.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Grünen müssen ausbügeln, dass 16 Jahre CDU/SPD/FDP Regierungen die Energiewende komplett verschlafen haben. Mehr noch: sie sabotieren bis jetzt den Ausbau von Wind- und Sonne, also die Energien, die uns wirklich unabhängig machen.
-Und was BILD draus macht: https://t.co/XtwWkhlhSr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507394299884937226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/FridayForFuture/status/1507394299884937226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FridayForFuture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FridaysForFuture ist Teil der globalen Klimagerechtigkeitsbewegung &amp; kämpft für die Einhaltung der 1,5-Grad-Grenze. Schließt euch uns auf unserer Website an!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-25T16:29:41.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">💥Breaking💥
-Wir waren 220.000 Menschen in ganz Deutschland beim #Klimastreik. 220.000, die für Klimaschutz &amp;amp; Frieden auf der Straße waren. Die von der Ampel einen Stopp der Energieimporte aus Russland und eine umfassende, schnelle Energiewende fordern. Danke.❤️ #PeopleNotProfit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507057295796150275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/wolfibey/status/1507057295796150275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wolfibey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demokratieforscher. Zukunftslobbyist. Chief Evangelist @enpal_de. Publizist ("Zehn Jahre klüger", "Alte Säcke Politik"). Top40unter40 @capitalmagazin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-24T18:10:33.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der @enpal_de-Akademie bilden wir zu Solar-Monteuren aus. Allein diesen Monat haben 68 neue Kollegen gestartet. Fachkräfte für die Energiewende — everyday for Future! 👩‍🔧👨‍🔧☀️ https://t.co/Mg224W2qza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1531330329482514433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/tazKlima/status/1531330329482514433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tazKlima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🌍 Alles zur Klimakrise aus der @tazgezwitscher
-⬇️ Schaut mal bei uns auf Insta vorbei ⬇️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-30T17:42:55.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundeskanzler Scholz hat ziemlich sicher Klimaaktivismus mit dem Nationalsozialismus verglichen. Das ist ein Skandal, im Grunde ein Rücktrittsgrund. https://t.co/0cdJpqsmrc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499059601882427404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Hornschild/status/1499059601882427404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hornschild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensch • Stadtrat in Erlangen 🏡 🚲🌳 @Klimaliste @KlimalisteER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-02T16:30:34.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte lasst ein Herz da, um @Markus_Soeder wissen zu lassen, dass er sich mit seiner Windkraft-Blockade zum verlängerten Arm von Putin macht. Mit der unterlassenen Energiewende verhält er sich maximal unsolidarisch gegenüber der #Ukraine 🇺🇦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509532987586748416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/shengfui/status/1509532987586748416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-31T14:08:04.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+++ EIL +++ Russischem Präsident könnte das gelingen, was in den 16 Jahren großer Koalition in Deutschland nicht gelang, weil man nicht bereit dafür war: Ernsthafte Schritte zur klimafreundlichen Energiewende, die uns unabhängig von fossilen Brennstoffen und Atom macht! https://t.co/eNfBvgh6dh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1502194378378551297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1502194378378551297</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-03-11T08:07:03.000Z</t>
   </si>
   <si>
@@ -986,27 +565,6 @@
     <t xml:space="preserve">Wer kennt noch Joachim Pfeiffer? Pfeiffer war von bis Frühjahr 2021 energiepolitischer Sprecher der CDU-Bundestagsfraktion und bekannt als harter Bremser der Energiewende. Pfeiffer hat nun einen neuen Job: als Lobbyist. Warum das problematisch ist 👇 1/10</t>
   </si>
   <si>
-    <t xml:space="preserve">1507644300212977669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Hartes_Geld/status/1507644300212977669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartes_Geld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurist • Libertär • Klartext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26T09:03:06.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat #Habeck umsonst gebuckelt?
-Der Energieminister von #Katar weiß nichts von einem Gas-Deal mit Clownland und wirft dem #grünen Minister die Verbreitung von "Blödsinn" vor!
-😂
-https://t.co/72LvJSjIO9 #Energiewende #Entlastungspaket</t>
-  </si>
-  <si>
     <t xml:space="preserve">1497864650632798214</t>
   </si>
   <si>
@@ -1035,41 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nach 11 Tagen Putin-Krieg ist endgültig klar: Die Achillesferse von Sicherheit &amp;amp; Souveränität ist die Rohstoffabhängigkeit. Es ist folgerichtig, dass wir nicht nur 100 Mrd in die Stärkung von Verteidigung &amp;amp; Zivilschutz investieren, sondern auch 200 Mrd in die Energiewende #Habeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530455453741744130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/FridayForFuture/status/1530455453741744130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-28T07:46:29.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worein 7 Milliarden investiert werden könnten: 
-- Bildung
-- Pflege 
-- Bahnausbau
-- Energiewende
-Worein Deutschland 7 Milliarden investieren möchte: 
-- 200km Autobahn
-#A20stoppen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1516752290945794053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1516752290945794053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-20T12:15:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wer jetzt Neuwahlen ruft, sollte daran erinnert werden, wer uns folgenden Mist nach 16 Jahren Regierungszeit vererbt hat:
-❌ fehlende Energiewende
-❌ massive Abhängigkeit zu Kohle, Öl und Gas
-❌ massive Bundeswehr-Mängel
-❌ #Nordstream2 samt geopolitischer Schwierigkeiten</t>
   </si>
   <si>
     <t xml:space="preserve">1501862369630248962</t>
@@ -1092,24 +615,6 @@
 Chodziło o handel ruskim gazem.</t>
   </si>
   <si>
-    <t xml:space="preserve">1510579056550498309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/TerliWetter/status/1510579056550498309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TerliWetter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipl. Meteorologe. Weather Presenter. Climate Communicator. Scientist4Future. Fernmeldeanlagen-Elektroniker. Born CO₂ @ 326 ppm. UMP 2021 awarded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03T11:24:46.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/n Was mich wirklich sehr sehr wütend macht, das wir die ignoranten, dummen und unfassbar egoistischen Entscheidungen der Vergangenheit jetzt bitter spüren. Die Energiewende hätte uns in Bezug auf den Krieg und die Klimakatastrophe anders aufgestellt.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1502937510695030784</t>
   </si>
   <si>
@@ -1129,33 +634,16 @@
 https://t.co/ZZ6HQqQlDU</t>
   </si>
   <si>
-    <t xml:space="preserve">1524862110982971392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Karl_Lauterbach/status/1524862110982971392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl_Lauterbach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPD Bundestagsabgeordneter, Bundesgesundheitsminister, der hier selbst und privat tweetet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12T21:20:32.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gute Frage. Denn auch für Geimpfte kann es zu LongCovid kommen. Das will niemand. Und die Arbeit von @VQuaschning wird für die Energiewende gerade im Verkehrsbereich, auch für Kollegen @Wissing, noch dringend gebraucht! https://t.co/beymEpTn5g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kann von der @fdp nicht mal ein sinnvoller Vorschlag kommen?
-Gestern sind noch 236 Menschen in Deutschland an Corona gestorben und auf Wunsch von Herrn @wissing soll ich mich jetzt bald in der Bahn von Menschen ohne Maske annießen lassen. Warum?
-https://t.co/MANRCRpPYH</t>
-  </si>
-  <si>
     <t xml:space="preserve">1500545453095628800</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/FridayForFuture/status/1500545453095628800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FridayForFuture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FridaysForFuture ist Teil der globalen Klimagerechtigkeitsbewegung &amp; kämpft für die Einhaltung der 1,5-Grad-Grenze. Schließt euch uns auf unserer Website an!</t>
   </si>
   <si>
     <t xml:space="preserve">2022-03-06T18:54:49.000Z</t>
@@ -1188,25 +676,6 @@
 #Energiewende https://t.co/07bdeXUDwI</t>
   </si>
   <si>
-    <t xml:space="preserve">1526213513500413953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/rahmstorf/status/1526213513500413953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahmstorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head of Earth System Analysis at Potsdam Institute for Climate Impact Research; professor of Physics of the Oceans at Potsdam University; dad. Opinions my own!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-16T14:50:31.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Menschen erwarten von Regierungen, dass sie sich um Brot und Wasser kümmern und nicht nur um Champagner. 
-Für die Energiewende heißt das: um Wind- und Sonnenenergie und nicht nur um Wasserstoff.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1496912616748429319</t>
   </si>
   <si>
@@ -1221,64 +690,6 @@
 #UkraineRussia</t>
   </si>
   <si>
-    <t xml:space="preserve">1518910737607020545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/DerGraslutscher/status/1518910737607020545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-26T11:11:54.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde es irgendwie drollig, wie viele Energiewende-Hater und Erzkonservative es feiern, dass #ElonMusk Twitter gekauft hat und offenbar nicht wissen, was der Mann eigentlich beruflich macht.
-Könnte lustig werden, wenn sie es rausfinden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510930442001727489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MacLesggy/status/1510930442001727489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacLesggy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingénieur agronome AgroParisTech/animateur-producteur e=m6/#em6/science pour tous sur @RTLFrance/ambassadeur #OralB/écologie oui, écologisme non/stop au CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-04T10:41:03.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.@yjadot, propager des #fakenews devrait être interdit en temps de campagne. En Europe, c'est en Allemagne que l'électricité est la plus chère, du fait de la ruineuse EnergieWende... dont vos collègues Grünen sont largement responsables. #énergie #realfacts VS #écologisme https://t.co/am9El5eQSc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La France est le pays européen qui paye son électricité la plus chère en Europe.
-Le dogmatisme nucléaire nous a empêchés de rénover les logements et de développer les énergies renouvelables. 
-#Les4V #Jadot2022 https://t.co/7AZrn8nuWk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1518990450811715584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/quarkswdr/status/1518990450811715584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quarkswdr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Wissenschaftsredaktion des WDR. 
-Einordnung auf der Grundlage wissenschaftlicher Evidenz. 
-https://t.co/xQN686eyFq 
-https://t.co/5GoFdKjfE0
-#COVID__19 #science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-26T16:28:39.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klimaneutral und unabhängiger von Gas und Öl – klingt gut. Aber wer soll’s zahlen? Tatsächlich sind die Rohstoffpreise und Subventionskosten seit einigen Jahren so hoch, dass sich die Energiewende auch finanziell lohnt. Ein Thread. https://t.co/k8q8tLgeMq</t>
-  </si>
-  <si>
     <t xml:space="preserve">1501208913043197956</t>
   </si>
   <si>
@@ -1301,47 +712,6 @@
   </si>
   <si>
     <t xml:space="preserve">#Scholz will das 2-Prozent-#NATO Ziel erfüllen und 100 Milliarden oben drauf in die #Bundeswehr investieren. Dieser aufrüstungspolitische Irrsinn wird Renten senken, Armut in diesem Land mehren und es wird Geld für die #Energiewende fehlen. Einfach Wahnsinn und unnötig.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1512319503589429257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/sci_ffert/status/1512319503589429257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sci_ffert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturwissenschaftler (Polymerchemie), Hochschullehrer (Physikalische Chemie), Klimaschützer (@S4F_Mainz &amp; 2. Vorsitz @KlimalisteRLP). Mehr passt nicht in 24h.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-08T06:40:41.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nochmal in aller Deutlichkeit: Die Forderung einer #Energiewende, die uns hinaus aus Abhängigkeiten, Kriegsfinanzierung und Zerstörung der Lebensgrundlagen unser Kinder und Enkel führt, ist keine radikale Position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1528342393916993537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/watch_union/status/1528342393916993537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">watch_union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagespolitische Kommentare und Nachrichten rund um #CDU, #CSU und ihre Skandale.
-Hinweise?
-DM - info@union-watch.de (pgp 0xA2BFFF6C) - tel 089-21536700
-#FCKNZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-22T11:49:56.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natürlich ist die #Energiewende gefährlich. 
-Jede private PV-Anlage, jede Wärmepumpe &amp;amp; jedes Windrad mit Bürger:innenbeteiligung schmälert die Gewinne von Energiekonzernen.
-Und das schmälert Aufsichtsratsposten, Teiltzeitstellen mit um die 100.000 € im Jahr &amp;amp; Präsentkörbe. /TN</t>
   </si>
   <si>
     <t xml:space="preserve">1504849621063016448</t>
@@ -1359,36 +729,6 @@
 1/5 https://t.co/ochzbAb8p4</t>
   </si>
   <si>
-    <t xml:space="preserve">1525768289703677952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/M_Hundhausen/status/1525768289703677952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-15T09:21:22.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rewe hier um die Ecke hat immer noch keine Photovoltaik auf dem Dach. Ziehen Strom ohne Ende und nutzen das Potenzial  nicht. so hintertreibt man die Energiewende. @REWE_Supermarkt @rewe_group https://t.co/zk8WH59END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507856017618612225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/ALevermann/status/1507856017618612225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALevermann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°physics professor seeking simple laws in climate and its economics °head of complexity science @PIK_Climate °scientist @Columbia  °followed by @GretaThunberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26T23:04:23.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Grund, warum wir keinen sofortigen Öl-, Gas-, und Kohleimportstopp aus Russland machen, ist das Versagen der @cdu @csu @spdde @fdp in den letzten zehn Jahren, die Energiewende nicht durchgeführt zu haben. Wir haben seit wenigstens zehn Jahren, das Wissen und die Fähigkeit.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1497896009573220354</t>
   </si>
   <si>
@@ -1420,49 +760,6 @@
     <t xml:space="preserve">Unsere Novelle des #EEG ist fertig: Mit vielen Maßnahmen erreichen wir eine 100% Stromversorgung mit #ErneuerbareEnergien schon im Jahr 2035. Das nützt nicht nur dem #Klimaschutz sondern macht uns unabhängig von #Putin|s Gas, Öl &amp;amp; Kohle #StandWithUkriane https://t.co/SlgxbkbdQE</t>
   </si>
   <si>
-    <t xml:space="preserve">1510578285645897730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/shlomosapiens/status/1510578285645897730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shlomosapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autor, Lektor, Korrektor, Bibitor https://t.co/5C4zoKmnHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03T11:21:43.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Politik hat die Weichen schon vor 20 Jahren falsch gestellt. Migration, Euro-Rettung, Energiewende, verheerende Lockdowns, Milliarden für andere Länder und Gedöns - jetzt kommt die Quittung. Und sie versuchen verzweifelt, es Corona und dem Ukraine-Krieg anzulasten. Lachhaft.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1520324879073132544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/rahmstorf/status/1520324879073132544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-30T08:51:12.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Lobby ‘Initiative Neue Soziale Marktwirtschaft’ (INSM) agitiert gegen Klimaschutz und Energiewende und ist damit mitverantwortlich für unsere Abhängigkeit von russischer Energie. https://t.co/nu5DxE1i7j
-Dass sie jetzt am HBhf Berlin so ein Plakat hängt ist eklige Heuchelei. https://t.co/s4OlfoK5RN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530591632051019776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Hornschild/status/1530591632051019776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-28T16:47:36.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Deutschland musst du erst sechs Semester Bürokratie studieren, um eine private Photovoltaikanlage steuerlich korrekt zu erfassen. Und ihr wundert euch, warum die Energiewende so schleppend voran geht, @spdde @Die_Gruenen @fdp ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1497678484004605952</t>
   </si>
   <si>
@@ -1479,44 +776,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unter anderem @CKemfert sagt es, wir müssen jetzt die Energiewende im Stile eines Apollo-Programms aufziehen. Das bedeutet schnellen Ausbau Solar und Wind, aber vor allem auch massives und strategisches Handeln in der Wärmeversorgung. (1/5) @spdde @OlafScholz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1524689172249915392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1524689172249915392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12T09:53:20.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Putins Helfer: @BILD macht Stimmung gegen #Energiewende und #Windkraftausbau und suggeriert, es gäbe bald keine Abstände mehr zu Häusern. Falsch: Gesetze u.a. zu Lärmschutz legen Mindestabstände fest. Es geht darum, willkürliche Abstandsregeln zu kippen.
-https://t.co/zATVAH87uE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1511718311817629703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Oliver_Krischer/status/1511718311817629703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06T14:51:46.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wir sind hier im @BMWK sicher alles andere als perfekt. Aber angesichts solcher Tweets bin ich fast froh, gerade keine Zeit zum Nachdenken darüber zu haben, was wäre wenn hier noch Altmaier, Bareiß &amp;amp; Co rumwerkelten #Ukraine #Gas #Energiewende #Klimakrise #EEG #Osterpaket #Habeck https://t.co/kHhqjXOmy0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1523004071266992130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1523004071266992130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-07T18:17:21.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interview bei @ZDFheute: Wenn alle an einem Strang ziehen und nicht Länder wie Bayern oder Sachsen weiter die #Energiewende bremsen, könnten wir 2035 völlig unabhängig von fossilen Energieimporten sein und damit auch unsere #Klimaschutz-Ziele erreichen.
-https://t.co/Em1N7AMV7P</t>
   </si>
   <si>
     <t xml:space="preserve">1499104401943838721</t>
@@ -1554,41 +813,6 @@
   <si>
     <t xml:space="preserve">Wie wäre es mit "Vermögenssteuer für die Energiewende" statt "Frieren für die Freiheit"?
 #Gauck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510864119792033795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Storch_i/status/1510864119792033795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-04T06:17:31.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf dem Stadiondach des @BVB-Stadions in Dortmund liegen mehr Solarmodule als auf allen Bahnhöfen der @DB_Bahn in ganz NRW. #Energiewende #Klimaschutz https://t.co/YXle2XeGn6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1515766097668186114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/P4F_Hamburg/status/1515766097668186114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4F_Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erwachsene aus Hamburg und Umgebung mit viel Energie - enorm aktiv - zusammen mit #FFF - FÜR 1,5 Grad 💚🌳 und unseren unglaublichen Planeten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-17T18:56:13.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gut das wir im Land der Dichter und Denker bei solchen innovativen Denkweisen immer die ersten sind! Ach das ist gar nicht die Eifel 🤔 ... na dann! #Umdenken #Energiewende #photovoltaik #solutions #EinfachMachen #ActNow #SonneGehörtAllen https://t.co/tPNwoipwpv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India is lining their canals with #solarpower. It provides #cleanenergy and stops water evaporation at the same time.
-We have so many solutions. Implement them. RT if you agree. #ActOnClimate 
-#ClimateCrisis #ClimateAction #renewables #solar #GreenNewDeal via @MikeHudema https://t.co/nXfIa2oM6s</t>
   </si>
   <si>
     <t xml:space="preserve">1499812688456781826</t>
@@ -1606,23 +830,6 @@
 https://t.co/UnuMZGqnQ6</t>
   </si>
   <si>
-    <t xml:space="preserve">1524979813517299714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/rahmstorf/status/1524979813517299714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-13T05:08:14.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebe @fdp, 
-ist Freiheit von überragendem öffentlichen Interesse?
-Sind die Erneuerbaren Freiheitsenergien?
-Wollt ihr im Ernst die Einstufung von Erneuerbaren als von „überragendem öffentlichen Interesse“ im Bundestag blockieren?
-#Klimakrise 
-https://t.co/1jAjBpWzvS</t>
-  </si>
-  <si>
     <t xml:space="preserve">1501956650059681799</t>
   </si>
   <si>
@@ -1661,41 +868,18 @@
 Bitte 😘</t>
   </si>
   <si>
-    <t xml:space="preserve">1510567628896673795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/RZitelmann/status/1510567628896673795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-03T10:39:22.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Presseclub: Zeit-Redakteurin spricht aus, was viele Grüne denken: Ukraine-Krieg als Riesenchance in Riesenschritten die ideologische "Energiewende" mit der Brechstange durchzusetzen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1522810754906439682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/Luis_I_Gomez/status/1522810754906439682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis_I_Gomez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioquímico, emprendedor, docente, fundador/editor de https://t.co/jx2qrKueT3 / También escribo en https://t.co/3BoK2fpXkS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-07T05:29:11.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suena a broma: destruir la naturaleza para proteger el clima.
-Una hectárea corresponde a un área de 100 x 100 metros, es decir 10.000 m 2 . Según la rbb , ahora se van a talar 370 hectáreas de bosque para construir un parque solar ⤵️⤵️https://t.co/gdq39H5gCk</t>
-  </si>
-  <si>
     <t xml:space="preserve">1497278823859113991</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/M_Hundhausen/status/1497278823859113991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_Hundhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutscher Solarpreis, Sonnenenergie Erlangen e.V., Scientist for Future, 
+@Klimaliste, Wissenschaft in die Politik,
+Mitglied im Stadtrat Erlangen</t>
   </si>
   <si>
     <t xml:space="preserve">2022-02-25T18:34:24.000Z</t>
@@ -1705,73 +889,6 @@
 wie absurd ist das denn.</t>
   </si>
   <si>
-    <t xml:space="preserve">1507706691479121921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MGGA2021h/status/1507706691479121921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGGA2021h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für ein starkes Europa mit eigenen Nationen. Für Glückliche+ungeimpfte Kinder. Islamisierung verhindern. Freier „Journalist“. Master o.t.U. GETTR: @Morlock_Nr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-26T13:11:01.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im Jahre 2050 in 🇩🇪,die Islamisierung ist abgeschlossen, die Energiewende gescheitert. 
-Das Kind fragt seinen Vater:„Papa, warum hast du nichts dagegen unternommen? Du hättest doch nur die AfD wählen müssen?“
-Der Vater: „im TV haben sie gesagt die wären Rechts!“
-Beide weinen. 😢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509996831832428550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/M_Hundhausen/status/1509996831832428550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01T20:51:13.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wusstet Ihr, dass ohne Subventionen für die fossilen Energien wir schon längst 100% EE hätten? 
-Ohne Bremser wären wir mit der Energiewende durch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1513575234477166592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/AtteKaleva/status/1513575234477166592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AtteKaleva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansanedustaja, sotatieteiden maisteri, kapteeni evp., yrittäjä, Helsingin kaupunginvaltuutettu (kokoomus).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-11T17:50:31.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksan vihreiden, ympäristöjärjestöjen lobbareiden tuella, ajama irtautuminen ydinvoimasta eli ns. #Energiewende oli Euroopan kaikkien aikojen ilmastovihamielisin yksittäinen teko. Mutta sillä oli vielä tätäkin synkempi puoli: se johti Saksan riippuvuuteen venäläisestä energiasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1531162655980929025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MauriceHoefgen/status/1531162655980929025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-30T06:36:39.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschafft: Der Mythos, Geld sei knapp, ist erledigt. Wo ein politischer Wille, da auch Geld. 100 Milliarden für die Energiewende - wann? https://t.co/5mclcxs0xV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschafft: Einigung beim #Sondervermögen Bundeswehr. Wir stellen gemeinsam sicher, dass die #Bundeswehr in den kommenden Jahren mit 100 Milliarden Euro zusätzlicher Investitionen gestärkt wird. Zugleich bleibt die Schuldenbremse für alle anderen Vorhaben erhalten. CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">1503099272224456719</t>
   </si>
   <si>
@@ -1801,6 +918,854 @@
   <si>
     <t xml:space="preserve">Das war ⁦@c_lindner⁩ im Jahr 2010(!) zum Thema Energiewende/Putin. 
 Der Tiger hatte mal schärfere Zähne. https://t.co/BBwkeezioq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501529190427938818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/PeterMaier82377/status/1501529190427938818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeterMaier82377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Kreisrat #DIELINKE im Kreistag Weilheim-Schongau; ehrenamtlicher #Sozialrichter; #Konzernschwerbehindertenvertrauensperson; #Gewerkschafter, #VdK;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-09T12:03:50.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#soeder 
+Söder will Atomkraftwerke, aber kein Endlager.
+Söder will Strom, aber keine Stromtrassen.
+Söder will Strom, aber keine Windräder.
+Söder will Strom, hat aber keine nenenswerte Wasserkraftreserven.
+Hat Söder die Energiewende verpasst?
+Ist Söder energiepolitisch bankrott? https://t.co/T81iD3st32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Markus_Soeder Jaja. Immer am lautesten nach Atomkraft schreien, aber bloß keinen Atommüll im eigenen Bundesland haben wollen. 🤡 https://t.co/l22TPuTRLa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1506006468939718661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/jdoeschner/status/1506006468939718661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-21T20:34:57.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Über Energiepreise reden, aber keine Diskussion über Energiewende zulassen. Ich fasse es nicht!
+#Plasberg #hartaberfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497306906230247440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/FrankaWelz/status/1497306906230247440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrankaWelz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Radio | ARD-Korrespondentin für Spanien &amp; Portugal | @tagesschau @ard @hrPresse | Vorher: ARD-Hauptstadtstudio, @essexsociology, @essexhistory, 🇧🇷.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T20:25:59.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn jetzt beklagt wird, dass wir leider zu sehr von Gas &amp;amp; Kohle aus 🇷🇺abhängen, um russischer Aggression mit aller ökonomischer Konsequenz zu begegnen (awkward, best of luck, Ukraine. Mwah!), dann müssen wir auch über jede:n einzelne:n reden, der die Energiewende erschwert hat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500795007942410240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/florianaigner/status/1500795007942410240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">florianaigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physiker, Autor, Wissenschaftserklärer. Kolumnen: Radio Ö1, futurezone/Kurier, Skeptiker (GWUP). Die Schwerkraft ist kein Bauchgefühl. insta:aignerscience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-07T11:26:27.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungefähr zweieinhalb Tage lang hatte ich die Hoffnung, Russlands Krieg könnte Europa aufrütteln, die Energiewende beschleunigen und den Ausstieg aus Öl und Gas bringen. Ich hätte diese zweieinhalb Tage mehr genießen sollen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502681740489412610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/ClaasGefroi/status/1502681740489412610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-12T16:23:40.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Können wir bitte auch ganz schnell von saudischem Öl unabhängig werden? #Energiewende https://t.co/E0FY35mwYy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497978997266862084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/fbrandmann/status/1497978997266862084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbrandmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundesvorsitzende der @JungeLiberale 🗽 
+Bundesvorstandsmitglied der @fdp 🚀
+PhD-Student &amp; Lecturer an der @UniofOxford 📚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T16:56:38.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist offensichtlich, warum wir massiv investieren müssen: Um Freiheit und Sicherheit in Europa zu schützen! 🕊 🇺🇦 
+Das ist Demokraten in FDP, SPD, Grüne und Union klar. Nur der Grünen Jugend nicht, die hier versucht, Sicherheit und Energiewende gegeneinander auszuspielen. https://t.co/O7xFfJZlJh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist nicht zu erklären, weshalb jetzt langfristige 100 Mrd. € schwere auf- und ausrüstungspolitische Debatten vom Zaun gebrochen werden.
+Sicherheit ist auch erneuerbare Energieunabhängigkeit, deswegen braucht es eine Milliarden-Offensive für die Erneuerbaren &amp;amp; Wärmewende.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1506236360310628363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1506236360310628363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-22T11:48:27.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Freitag ist globaler Klimastreik. Fossile Energien zerstören nicht nur das Klima, sie finanzieren auch Putins Krieg. Und obwohl eine radikale Energiewende so logisch ist wie nie, werden wir für sie kämpfen müssen. Bis Freitag, überall! #PeaceAndJustice
+https://t.co/9ueNa7miY6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499646381484617731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/David_Wortmann/status/1499646381484617731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Wortmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneur, Communicator &amp; Policy Advisor for the Green Economy u.a. @dwr_eco @leaders4CA @ewgnetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T07:22:14.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warum 
+👉die gescheiterten Lobbyinteressen der Vergangenheit jetzt nicht helfen
+👉Atom und LNG Scheinlösungen sind
+👉wir schnellsten rein in die Erneuerbaren müssen
+👉Energiewende keine Nerd-Öko-Politik, sondern harte Sicherheitspolitik ist
+#Lanz @Luisamneubauer 👇 https://t.co/xLYHLR4gQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501257097463287812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1501257097463287812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T18:02:38.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habt ihr euch heute schon bei @peteraltmaier bedankt? Er hat als Wirtschaftsminister die deutsche Energiewende verschleppt und blockiert. Dank ihm und seinen Lobbyfreunden ist Deutschland heute so abhängig von Putins Rohstoffen. Danke für nichts, Herr Ex-Minister. #Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499100626273415172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/ProfEnergyHuber/status/1499100626273415172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProfEnergyHuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor for Energy Economics and Smart Infrastructure @TH_Deggendorf, Lecturer @TU_Muenchen, Ingenieur und Ökonom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-02T19:13:35.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übrigens, da jetzt sich jetzt gerade viele darüber beschweren, dass selbst grüne Politiker:innen Laufzeitverlängerungen AKW/Kohle prüfen lassen: ich bin seit ~15 Jahren im Bereich Energiewende tätig und habe noch nie so eine Entschlossenheit in der Politik gespürt wie jetzt. 1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1498979722415509504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/florianaigner/status/1498979722415509504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-02T11:13:10.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polen will Kohle-Import aus Russland stoppen, obwohl Polens Stromerzeugung von Kohle abhängig ist.
+Ich hätte übrigens keinerlei Problem damit, wenn mein Steuergeld die Energiewende in Polen unterstützt. Es wäre wohl eine der effizientesten Klima-Maßnahmen, die damit möglich sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499331797007704067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1499331797007704067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-03T10:32:11.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe CDU, 
+die Energiewende ist die wohl friedlichste Sicherheitspolitik, die wir gerade liefern können.
+Eine von russischer Kohle, Öl und Gas unabhängige 🇪🇺 muss unser Ziel sein. https://t.co/S3eS34lghD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499824263460790281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Naturschuetzen/status/1499824263460790281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturschuetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Antifaschistin, #Veganerin, Unterstützt: https://t.co/grbEwGrrHO, @_GermanZero
+!Klimaschutz über Parteigrenzen hinweg!
+Profilfoto K. Hepburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T19:09:04.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falls es jemanden interessiert, unsere Energiewende:
+20 KW peak Heckert Nemo 330W PV-Module, Solar Edge Wechselrichter, Discovergy Smart Meter, Stiebel Eltron Wärmepumpe, easee Home Wallbox, Clever-PV Solar Ladesteuerung
+5 Jahre Konsumverzicht, 2 Jahre geplant &amp;amp; gebaut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500486649037393924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1500486649037393924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-06T15:01:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@peteraltmaier Herr Altmaier, Sie tragen übrigens massive Schuld, dass Deutschland so stark von russischen Erdöl- und Erdgas-Importen abhängig ist. Sie haben als Wirtschaftsminister die deutsche Energiewende verschleppt und blockiert. Ihre politische Bilanz ist eine riesige Katastrophe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502201691172659200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/peter_simone/status/1502201691172659200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peter_simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Klimaschutz ist zentrale Überlebensfrage, 100% Erneuerbare dafür zwingend.“ BEE-Präsidentin. Ministerin a.D., Dr.rer.nat., Grüne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-11T08:36:07.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sieht es gerade in Europa bei den Börsenstrompreisen aus. Hinweis: In Deutschland weht der Wind 💨 und scheint die Sonne ☀️. (Und es ist erst 9.30 Uhr) #Erneuerbare sind günstig, sicher, sauber &amp;amp; heimisch. Jetzt die #Energiewende beschleunigen! #TeamErneuerbare @bEEmerkenswert https://t.co/RhJSSCgl6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505287583428923403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1505287583428923403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-19T20:58:21.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir brauchen dringend mehr Handwerker*innen für die Umsetzung der Energiewende. Warum müssen Meisterschüler*innen immer noch die Kosten für die Ausbildung selbst zahlen? Das sind oft über 10.000 Euro. Beim Studium zahlt der Bund. Warum beim #Handwerk nicht? 
+@BMWK @Bundeskanzler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497097069168934920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1497097069168934920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T06:32:10.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir brauchen eine schnelle #Energiewende und #Verkehrswende. Wir sollten einen Neuzulassungsstopp für Verbrennerautos und Einbaustopp für Öl- und Gasheizungen beschließen. Das reduziert die Abhängigkeit von Öl und Gas und ist auch zum Abwenden der #Klimakrise dringend nötig. https://t.co/Bn5KMPPIl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497651655445303302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/nikitheblogger/status/1497651655445303302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikitheblogger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTuber mit 300.000 Abonnenten, freier Journalist und politischer Blogger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26T19:15:54.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grünen tragen mit ihrer Ideologie Verantwortung dafür, dass Deutschland keine eigenständige Energieversorgung hat. Die CDU hat in 16 Jahren Merkel diese Ideologie leider auch umgesetzt.
+Wir müssen die Energiewende sofort rückabwickeln und wieder auf unsere Kraftwerke setzen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505996767783006211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/wenig_worte/status/1505996767783006211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenig_worte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Die ihr eintretet, lasst alle Hoffnung fahren!“  Die Göttliche Komödie, Hölle III, 9 🤷‍♂️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-21T19:56:24.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spahn erzählt Unwahrheiten über die Energiewende, Frau Kemfert @CKemfert will das nicht so stehen lassen, weil es auch Auswirkungen auf Geschäfte mit Russland - und Plasberg lässt sie nicht einmal EINEN Satz ausreden.
+Un-fass-bar.
+Drecksendung. #Hartaberfair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497533122849738757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CKemfert/status/1497533122849738757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26T11:24:53.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir sind zu abhängig von den russischen Energielieferungen und damit auch erpressbar. Wir bezahlen für die Fehler der Vergangenheit. Die beste Antwort auf den fossilen Energiekrieg ist eine beschleunigte Energiewende. Für #Frieden
+Interview in @derspiegel
+https://t.co/pjM9sZa9s4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505306483457773568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/ABNPoland/status/1505306483457773568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABNPoland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na straży konstytucyjnego porządku prawnego. 
+Bronimy Rzeczpospolitej Polskiej przed wrogami zewnętrznymi i wewnętrznymi. 
+Semper fidelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-19T22:13:27.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolejna osoba już pisze o tym, że Niemcy "zrezygnowali z NordStream2"
+Przecież to bzdura. Cała infrastruktura spokojnie czeka na "lepsze czasy"
+https://t.co/rU7tONyVTT
+Niemcy nigdy nie zrezygnują z tego projektu. O ten projekt oparta jest ich cała strategia Energiewende.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499419035070611459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1499419035070611459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-03T16:18:50.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Während sich die Lage in #Ukraine zuspitzt macht sich @Markus_Soeder mit der Windkraft-Blockade weiter zum verlängerten Arm von Putin. Er spielt mit d unterlassenen Energiewende einem Kriegstreiber in die Hände. Könnt ihr bitte mithelfen diese unsolidarische Politik abzuwählen?🇺🇦 https://t.co/A3Z8WOYwvW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1498304482978848770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/BMWK/status/1498304482978848770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktuelles aus dem Bundesministerium für Wirtschaft und Klimaschutz. Impressum &amp; Datenschutz: https://t.co/kcooMtaJc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-28T14:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Beschleunigung der #Energiewende ist auch eine Frage der nationalen &amp;amp; europäischen Sicherheit. Der schnelle #ErneuerbareEnergien-Ausbau ist zentral, um Importabhängigkeit von fossilen Rohstoffen zu überwinden. Minister #Habeck leitet Ressortabstimmung für #EEG-Novelle ein. https://t.co/wulJIaVQD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501302997229342721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/peter_simone/status/1501302997229342721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T21:05:02.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideologisch motiviert ist einzig die #Windkraft-Verhinderung in Bayern. Atom und Kohle bringen uns nicht weiter. Weil man sich an diese Uralt-Energien geklammert und die Energiewende ausgebremst hat , stecken wir jetzt in dieser fatalen Abhängigkeit. Die Zukunft ist #erneuerbar! https://t.co/63GnTTDZ03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enttäuschende Entscheidung: Kohle verlängern, aber aus der #Kernkraft aussteigen. Das ist das falsche Signal und rein ideologisch motiviert. @Die_Gruenen bleiben in der Krise leider im alten Denken gefangen. https://t.co/7s29BbEU45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497222728083980308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/LukasKovanda/status/1497222728083980308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LukasKovanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Economist, Trinity Bank | Senior Analyst, U.N. | Presenter, Nova TV | University of Economics, Prague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T14:51:30.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toto je reálný "game-chager": čínské státní banky omezují financování ruského vývozu surovin. Svým způsobem jde Čína dál než Západ. Ten ruské suroviny typu plynu a ropy zatím ze svých sankcí vyňal. Kvůli zelené transformaci a německé Energiewende je na nich totiž značně závislý. https://t.co/ruGsyIQJ55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1498723830080147459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Beatrix_vStorch/status/1498723830080147459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatrix_vStorch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#MdB 20. Deutscher #Bundestag, stellv. Fraktionsvors. @AfDimBundestag, Stellv. Bundesvors. der @AfD (#AfD), Tweets v. #BvS &amp; Team. https://t.co/UXG81yGNK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01T18:16:20.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habeck will keine „Denktabus“ über Kernkraft mehr. Sehr gut! Die Illusion der Klimajünger löst sich auf. Ohne Kernkraft und Kohle gehen die Lichter aus. #Energiewende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501102183298871296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/lgbeutin/status/1501102183298871296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgbeutin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitglied im Parteivorstand @dieLinke. #Klimagerechtigkeit #SystemChangeNotClimateChange #DieLinke #noafd #antifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T07:47:04.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@janboehm Blöd, unterschiedliche Gruppen gegeneinander auszuspielen - ne Form des Whataboutism. Besser: Unter Folgen steigender Energiepreise leiden Mieter*innen &amp;amp; Pendler*innen ohne viel Geld, während Energiekonzerne massig verdienen. Also: Entlasten UND Energiewende ☀️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505997318096662529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/NurderK/status/1505997318096662529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NurderK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Skills can be taught. Character you either have or you don't have.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-21T19:58:35.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Die Politik hat uns immer munter ins Gesicht gelächelt, und gesagt da gibt es keine Abhängigkeit.“
+@CKemfert bei #hartaberfair #Energiewende https://t.co/LpJ73RaXU3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497541518256709636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Luisamneubauer/status/1497541518256709636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26T11:58:15.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Man sollte auf gar keinen Fall in die Falle tappen, jetzt die Laufzeit von Atom oder Kohle zu verlängern, das wäre genau im Sinne Russlands. Die beste Antwort auf einen fossilen Energiekrieg ist eine beschleunigte Energiewende."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499667211002290180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1499667211002290180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T08:45:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014: Praktisch das Ende der Windkraft in Bayern.
+10H-Abstandsregel für Windkraftanlagen wirkt – leider fatal für die Energiewende und unsere Abhängigkeit zu Russland. https://t.co/6TDNLDgf4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502161027747573769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/HolzheuStefan/status/1502161027747573769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HolzheuStefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wissenschaftler aus tiefster Überzeugung. Was zählt, sind nachvollziehbare Fakten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-11T05:54:32.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harald Lesch in @BR_quer: 
+"Im Grunde sehe ich gar nicht wo der Haken ist und warum die @CSU nicht mit aufspringt. Die Natur gewinnt, die Arbeitsplätze werden gewinnen und #Bayern wird gewinnen."
+Sehr sehenswert!
+https://t.co/GV9gyoy73e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502555780670803977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/sandra2519691/status/1502555780670803977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandra2519691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungeimpft und nicht genesen, immer noch gesund und am leben🥳🥳🥳🍾🍾🍾🎉🎉🎉
+Auch auf Gettr: Sandra251969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-12T08:03:08.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn Russland weiterhin Gas liefert, warum werden unsere Tanks nicht gefüllt?🤔 Warum wird von "frieren" gesprochen und was lässt die Kosten steigen? Wo ist dieses Gas? Wird es von unserer Regierung weiterverkauft, um die Aufrüstung zu bezahlen?🤔 #frierenfürWaffen #Energiewende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502955963275530240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Storch_i/status/1502955963275530240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-13T10:33:19.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Markus_Soeder Schaffen Sie erstmal 10H ab und machen Sie Bayern zum einem #Energiewende-Land.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501137128331304968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Max_Gedanken/status/1501137128331304968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max_Gedanken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es reicht nicht, seine Sache gut zu machen - man muss auch eine gute Sache zu der seinen machen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T10:05:55.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heult gefälligst leise!
+Ihr habt schließlich diese Gestalten gewählt, die Euch Klimaschutz und Energiewende versprochen haben. 
+Jetzt habt Ihr den Salat.
+(Symbolbild von @_richtig_falsch) https://t.co/bKwLg28K2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500168112699760643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1500168112699760643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-05T17:55:24.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasst mal Dienstpflicht für alle Boomer einführen, die seit Jahrzehnten die Energiewende blockiert haben. 
+#Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497898303056457728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/_Katja_Diehl_/status/1497898303056457728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Katja_Diehl_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Buch Autokorrektur @sfischerverlage https://t.co/speFbs9qSp • Newsletter: https://t.co/OeqoCy7ROb • Expertin für inklusive, wahlfreie und nachhaltige Mobilität • Politikberaterin •</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T11:35:59.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heute sind wir in der Lage, parteiübergreifend anzuerkennen, wieviel Freiheit und Chance im Ausstieg aus fossilen Brennstoffen liegt.
+Es zermalmt mich fast, dass wir dafür einen Krieg benötigten.
+Umso vehementer müssen wir nun agieren:
+Energiewende und
+Verkehrswende umsetzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1498761495114620931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CKemfert/status/1498761495114620931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01T20:46:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus aktuellem Anlass ein Interview von vor 5 Jahren:
+Die Energiewende ist das beste Friedensprojekt auf der Welt 
+Einsatz von Erneuerbaren Energien ist dezentral und partizipativ. So wird die Demokratie gestärkt. Und geopolitische Konflikte vermindert.
+https://t.co/BKy9pd5eQF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1503004971649884161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/radioeins/status/1503004971649884161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radioeins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radioeins - nur für Erwachsene vom Rundfunk Berlin-Brandenburg (rbb) | Netiquette: https://t.co/ujZDeyovB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-13T13:48:04.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.@Karl_Lauterbach hat sein neues Buch „Bevor es zu spät ist“ bei einem Live-Talk im Tipi am Kanzleramt vorgestellt. Zusammen mit @ckemfert diskutierte er über den #Klimaschutz &amp;amp; die #Energiewende, moderiert hat Volker Wieprecht. Der Talk im Videostream: https://t.co/9gqFtQPGI9 https://t.co/KYXv8rUGZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505298859307716610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/PARTEI_Hannover/status/1505298859307716610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTEI_Hannover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die PARTEI Kreisverband Region Hannover. „linksradikale antidemokratische Satirepartei“, „Taktgeber für die polische Agenda der SPD und CDU“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-19T21:43:09.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gute Autokratien, schlechte Autokratien!
+Diese Woche: #Russland weiterhin schlecht. #Türkei immer mehr gut, darf weiterhin Kurd*innen ermorden. #Katar und die #VAE gut genug für Gas-Shopping-Touren.
+Nächste Woche: #Nordkorea!
+#Autokratie #Energiewende #Habeck #Scholz #Erdogan https://t.co/cJwBJqo6wR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1503256792784113668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/VQuaschning/status/1503256792784113668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-14T06:28:43.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüner #Wasserstoff ist aktuell kaum teurer als #Erdgas. Für die Unabhängigkeit der Industrie sollten wir schnell große Importkapazitäten aufbauen und kurzfristig einen Zulassungsstopp für Verbrennerautos und Einbaustopp für Öl- und Gasheizungen verhängen.
+https://t.co/swKvGeKe3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501888984074657798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/peterbleckwehl/status/1501888984074657798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peterbleckwehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fakten- und Zahlenhörig, Admin &amp; freidenkender Mensch (beides manchmal wider Willen), Sportler (DOSB-Trainer) &amp; Gelegenheitsbarde. 🎸🏃‍♂️🏴‍☠️ 🇪🇺❌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10T11:53:32.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vielleicht trösten #Gaucks christlichen Worte ja die fast eine Million Menschen, darunter Kranke, Hochbetagte und Familien mit kleinen Kindern, denen jetzt schon der Strom wegen der „Energiewende“ in Deutschland gesperrt wird. #frierenfuerdiefreiheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501947222631411713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CKemfert/status/1501947222631411713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10T15:44:57.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit mal wieder über die #Finanztransaktionssteuer zu sprechen: Die EU-Staaten haben doch die Einführung beschlossen und immer noch nicht umgesetzt. An den Öl und Gas -Märkten, aber bei Zertifikaten und beim Strom wird gerade kräftig spekuliert. Einnahmen nutzen für #Energiewende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499412076615380999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hartes_Geld/status/1499412076615380999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartes_Geld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurist • Libertär • Klartext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-03T15:51:11.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">😍
+Nichts wird lustiger als zu beobachten, wie den Bunt-Deutschen ihre #grüne Utopie um die Ohren fliegt!
+https://t.co/eL0saCbBX6  #Energiewende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1498760227604287492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Klimaliste/status/1498760227604287492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimaliste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir sind die Graswurzelbewegung der lokalen Klimalisten. Klimaliste Deutschland 🌿 #Klimaliste Presse: presse@klimaliste.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01T20:40:58.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Können wir bitte alle @Markus_Soeder wissen lassen, dass er sich mit seiner Windkraftblockade zum verlängerten Arm von Putin macht? Mit seiner unterlassenen Energiewende verhält sich Söder maximal unsolidarisch gegenüber der #Ukraine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1499694726664138757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/maewald/status/1499694726664138757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-04T10:34:20.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Sanktionen bedeuten nicht nur einen Kraftakt bei der Energiewende, sondern auch Opfer und Einschränkungen.
+a) Auf die muss die Politik das Land einstellen
+b) Die werden von Rechts ausgeschlachtet, um Protestbewegungen zu formen, siehe 4.
+5/x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497471647577640960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1497471647577640960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-26T07:20:37.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir reden zu wenig über dringend notwendige politische Rücktritte von Politiker*innen, die seit Jahren die Energiewende blockiert, die fossile Energieinfrastruktur wie NordStream 2 protegiert und uns in die massive Abhängigkeit vom Ausland geführt haben. #Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497005654069981191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Bugs_Meany/status/1497005654069981191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugs_Meany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope all of us can learn from this experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25T00:28:55.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@_epictweetus_ "Energiewende"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501207195307888640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CKemfert/status/1501207195307888640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08T14:44:21.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sehr gute Idee! Energiewende vor Acht: wie kommen wir mit Energiesparen und mehr erneuerbaren Energien schnell aus der Abhängigkeit von fossilen Energien? Wie und wodurch kann Öl/Gasheizung ersetzt werden? Was bringt Wärmepumpe, Tempolimit und autofreie Sonntage? Usw. Usw. https://t.co/7EWqg66yUm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Könnte man nicht "Börse vor Acht" schnell durch "Energieeffizienz vor Acht" ersetzen? Scheint mir gerade wichtiger zu sein, dass Informationen dazu schnell und breit gestreut werden. Was wir jetzt sparen, ist im Zweifelsfall im Herbst noch im Speicher...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1502984028206641159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/TerliWetter/status/1502984028206641159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TerliWetter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipl. Meteorologe. Weather Presenter. Climate Communicator. Scientist4Future. Fernmeldeanlagen-Elektroniker. Born CO₂ @ 326 ppm. UMP 2021 awarded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-13T12:24:51.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@KSchwanke Stimmt. Kann man generell auf die letzten 16 Jahre ausweiten Aufgrund der Tatsache, dass sie erstens eine unsägliche fossile Abhängigkeit eingegangen sind und zweitens die #Energiewende torpediert und drittens den #Klimaschutz verschleppt haben. 
+Die A-Karte haben jetzt alle!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1497850773807501314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/Hornschild/status/1497850773807501314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-27T08:27:07.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Könnt ihr euch noch an @Thomas_Bareiss erinnern? Gemeinsam mit @peteraltmaier hat er im @BMWK in den vergangenen Jahren massiv die Energiewende blockiert, unsere fossile Abhängigkeit zementiert und Putin in die Hände gespielt. Putin dankt solchen Politikern😡 #Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500150660297367552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/micha_bloss/status/1500150660297367552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-05T16:46:03.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihr hättet die Hebel der Energiewende umlegen müssen, nicht abmontieren, liebe CDU. https://t.co/OygBriVwIv</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2273,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>378533</v>
+        <v>6125</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -2318,7 +2283,7 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>8199</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="7">
@@ -2335,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>6125</v>
+        <v>378535</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -2345,7 +2310,7 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="n">
-        <v>8107</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="8">
@@ -2356,592 +2321,592 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>378535</v>
+        <v>81516</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="n">
-        <v>7848</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>81516</v>
+        <v>1842</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>7573</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>20290</v>
+        <v>23599</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="n">
-        <v>7476</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>45553</v>
+        <v>1496474</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>6537</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>1842</v>
+        <v>23492</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>6270</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>378535</v>
+        <v>39118</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>6264</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
-        <v>10058</v>
+        <v>20241</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>5810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>2001</v>
+        <v>144113</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>5458</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>12775</v>
+        <v>33195</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="n">
-        <v>5420</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
-        <v>101975</v>
+        <v>47059</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17"/>
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
       <c r="I17" t="n">
-        <v>5297</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>23599</v>
+        <v>33195</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="n">
-        <v>5228</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" t="n">
-        <v>1496474</v>
+        <v>60106</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="n">
-        <v>4762</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E20" t="n">
-        <v>465</v>
+        <v>15020</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="n">
-        <v>4723</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E21" t="n">
-        <v>23492</v>
+        <v>36756</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="n">
-        <v>4119</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E22" t="n">
-        <v>39118</v>
+        <v>21821</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="n">
-        <v>3868</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E23" t="n">
-        <v>20241</v>
+        <v>10214</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="n">
-        <v>3808</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E24" t="n">
-        <v>453220</v>
+        <v>101975</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="n">
-        <v>3758</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E25" t="n">
-        <v>144113</v>
+        <v>62773</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="n">
-        <v>3603</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E26" t="n">
-        <v>33195</v>
+        <v>35696</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="n">
-        <v>3571</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E27" t="n">
-        <v>163224</v>
+        <v>5869</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>3528</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E28" t="n">
-        <v>739</v>
+        <v>64100</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>3451</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E29" t="n">
-        <v>47059</v>
+        <v>10214</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" t="s">
         <v>173</v>
       </c>
+      <c r="H29"/>
       <c r="I29" t="n">
-        <v>3392</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="30">
@@ -2952,1950 +2917,1948 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E30" t="n">
-        <v>33195</v>
+        <v>28645</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>3239</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E31" t="n">
-        <v>286677</v>
+        <v>51059</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>3204</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E32" t="n">
-        <v>4695</v>
+        <v>19856</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>3188</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E33" t="n">
-        <v>60106</v>
+        <v>232976</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="n">
-        <v>3149</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" t="n">
-        <v>54328</v>
+        <v>13488</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" t="s">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H34"/>
       <c r="I34" t="n">
-        <v>3131</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="n">
+        <v>60107</v>
+      </c>
+      <c r="F35" t="s">
         <v>206</v>
       </c>
-      <c r="E35" t="n">
-        <v>15020</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>207</v>
-      </c>
-      <c r="G35" t="s">
-        <v>208</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="n">
-        <v>3112</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60106</v>
+      </c>
+      <c r="F36" t="s">
         <v>210</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>211</v>
-      </c>
-      <c r="D36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" t="n">
-        <v>141254</v>
-      </c>
-      <c r="F36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" t="s">
-        <v>214</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="n">
-        <v>3051</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>33195</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" t="s">
         <v>215</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" t="n">
-        <v>101974</v>
-      </c>
-      <c r="F37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" t="s">
-        <v>218</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="n">
-        <v>3016</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="n">
+        <v>62773</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
         <v>219</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1757</v>
-      </c>
-      <c r="F38" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" t="s">
-        <v>224</v>
       </c>
       <c r="H38"/>
       <c r="I38" t="n">
-        <v>2924</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E39" t="n">
-        <v>19805</v>
+        <v>60106</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="n">
-        <v>2908</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" t="n">
+        <v>22361</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" t="s">
         <v>229</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" t="n">
-        <v>36756</v>
-      </c>
-      <c r="F40" t="s">
-        <v>233</v>
-      </c>
-      <c r="G40" t="s">
-        <v>234</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="n">
-        <v>2827</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" t="s">
         <v>235</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" t="n">
-        <v>21821</v>
-      </c>
-      <c r="F41" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" t="s">
-        <v>240</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="n">
-        <v>2798</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3436</v>
+      </c>
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" t="n">
-        <v>232976</v>
-      </c>
-      <c r="F42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" t="s">
-        <v>246</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="n">
-        <v>2780</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6366</v>
+      </c>
+      <c r="F43" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" t="s">
         <v>247</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7695</v>
-      </c>
-      <c r="F43" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" t="s">
-        <v>252</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>2756</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>9915</v>
+        <v>23599</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>2722</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="E45" t="n">
         <v>10214</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G45" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="n">
-        <v>2679</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="E46" t="n">
-        <v>81516</v>
+        <v>101975</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="n">
-        <v>2645</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E47" t="n">
-        <v>101975</v>
+        <v>23599</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>2587</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E48" t="n">
-        <v>62773</v>
+        <v>12775</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>2556</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="E49" t="n">
-        <v>35696</v>
+        <v>10214</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>2541</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E50" t="n">
-        <v>5869</v>
+        <v>4910</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G50" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>2508</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E51" t="n">
-        <v>64100</v>
+        <v>468</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51"/>
+        <v>285</v>
+      </c>
+      <c r="H51" t="s">
+        <v>286</v>
+      </c>
       <c r="I51" t="n">
-        <v>2462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="E52" t="n">
-        <v>29230</v>
+        <v>19856</v>
       </c>
       <c r="F52" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G52" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="n">
-        <v>2399</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="E53" t="n">
-        <v>10214</v>
+        <v>2437</v>
       </c>
       <c r="F53" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="n">
-        <v>2339</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E54" t="n">
-        <v>28645</v>
+        <v>51015</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G54" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="n">
-        <v>2336</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
-        <v>232975</v>
+        <v>6125</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G55" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H55"/>
       <c r="I55" t="n">
-        <v>2302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="E56" t="n">
-        <v>23599</v>
+        <v>6143</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G56" t="s">
-        <v>320</v>
-      </c>
-      <c r="H56"/>
+        <v>312</v>
+      </c>
+      <c r="H56" t="s">
+        <v>313</v>
+      </c>
       <c r="I56" t="n">
-        <v>2235</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C57" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="E57" t="n">
-        <v>51059</v>
+        <v>378535</v>
       </c>
       <c r="F57" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G57" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>2194</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C58" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D58" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E58" t="n">
-        <v>53419</v>
+        <v>3227</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="n">
-        <v>2178</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="E59" t="n">
-        <v>19856</v>
+        <v>10214</v>
       </c>
       <c r="F59" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>2127</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E60" t="n">
-        <v>999508</v>
+        <v>1825</v>
       </c>
       <c r="F60" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G60" t="s">
-        <v>344</v>
-      </c>
-      <c r="H60" t="s">
-        <v>345</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="H60"/>
       <c r="I60" t="n">
-        <v>2077</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="E61" t="n">
-        <v>232976</v>
+        <v>51015</v>
       </c>
       <c r="F61" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H61"/>
       <c r="I61" t="n">
-        <v>2062</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="E62" t="n">
-        <v>13488</v>
+        <v>23599</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G62" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="n">
-        <v>2022</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D63" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E63" t="n">
-        <v>124991</v>
+        <v>5558</v>
       </c>
       <c r="F63" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G63" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>1995</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="E64" t="n">
-        <v>60107</v>
+        <v>10214</v>
       </c>
       <c r="F64" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G64" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>1973</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C65" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="E65" t="n">
-        <v>62773</v>
+        <v>38378</v>
       </c>
       <c r="F65" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G65" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>1969</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
-        <v>372</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="E66" t="n">
-        <v>57292</v>
+        <v>10214</v>
       </c>
       <c r="F66" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G66" t="s">
-        <v>375</v>
-      </c>
-      <c r="H66" t="s">
-        <v>376</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="H66"/>
       <c r="I66" t="n">
-        <v>1934</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>380</v>
+        <v>143</v>
       </c>
       <c r="E67" t="n">
-        <v>76256</v>
+        <v>101979</v>
       </c>
       <c r="F67" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="G67" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>1908</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>368</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="E68" t="n">
-        <v>60106</v>
+        <v>77642</v>
       </c>
       <c r="F68" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G68" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>1896</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="E69" t="n">
-        <v>33195</v>
+        <v>8675</v>
       </c>
       <c r="F69" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G69" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="H69"/>
       <c r="I69" t="n">
-        <v>1874</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="E70" t="n">
-        <v>13646</v>
+        <v>60107</v>
       </c>
       <c r="F70" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G70" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="H70"/>
       <c r="I70" t="n">
-        <v>1855</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E71" t="n">
-        <v>61928</v>
+        <v>13120</v>
       </c>
       <c r="F71" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G71" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>1844</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="E72" t="n">
-        <v>62773</v>
+        <v>10214</v>
       </c>
       <c r="F72" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G72" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H72"/>
       <c r="I72" t="n">
-        <v>1841</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="E73" t="n">
-        <v>12775</v>
+        <v>141254</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="G73" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="H73"/>
       <c r="I73" t="n">
-        <v>1827</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="E74" t="n">
-        <v>6717</v>
+        <v>38378</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G74" t="s">
-        <v>416</v>
-      </c>
-      <c r="H74"/>
+        <v>401</v>
+      </c>
+      <c r="H74" t="s">
+        <v>402</v>
+      </c>
       <c r="I74" t="n">
-        <v>1798</v>
+        <v>997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="E75" t="n">
-        <v>60106</v>
+        <v>35122</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G75" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>1771</v>
+        <v>984</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>22361</v>
+        <v>73638</v>
       </c>
       <c r="F76" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G76" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>1754</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D77" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E77" t="n">
-        <v>17410</v>
+        <v>11444</v>
       </c>
       <c r="F77" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G77" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H77"/>
       <c r="I77" t="n">
-        <v>1726</v>
+        <v>980</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="E78" t="n">
-        <v>124990</v>
+        <v>19373</v>
       </c>
       <c r="F78" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G78" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H78"/>
       <c r="I78" t="n">
-        <v>1707</v>
+        <v>977</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
-        <v>10213</v>
+        <v>378536</v>
       </c>
       <c r="F79" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G79" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>1695</v>
+        <v>976</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C80" t="s">
-        <v>443</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>60</v>
       </c>
       <c r="E80" t="n">
-        <v>1680</v>
+        <v>23599</v>
       </c>
       <c r="F80" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="G80" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H80"/>
       <c r="I80" t="n">
-        <v>1676</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="E81" t="n">
-        <v>101974</v>
+        <v>12406</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G81" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>1653</v>
+        <v>970</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="D82" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="E82" t="n">
-        <v>22361</v>
+        <v>7328</v>
       </c>
       <c r="F82" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G82" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>1630</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="E83" t="n">
-        <v>101974</v>
+        <v>13488</v>
       </c>
       <c r="F83" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G83" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>1621</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C84" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D84" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E84" t="n">
-        <v>3436</v>
+        <v>8256</v>
       </c>
       <c r="F84" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G84" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>1601</v>
+        <v>951</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C85" t="s">
-        <v>467</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>468</v>
+        <v>137</v>
       </c>
       <c r="E85" t="n">
-        <v>6366</v>
+        <v>10214</v>
       </c>
       <c r="F85" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G85" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1591</v>
+        <v>950</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="E86" t="n">
-        <v>13488</v>
+        <v>42328</v>
       </c>
       <c r="F86" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G86" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>1583</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>478</v>
+        <v>113</v>
       </c>
       <c r="E87" t="n">
-        <v>2236</v>
+        <v>60106</v>
       </c>
       <c r="F87" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G87" t="s">
-        <v>480</v>
-      </c>
-      <c r="H87" t="s">
-        <v>481</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="H87"/>
       <c r="I87" t="n">
-        <v>1581</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
       <c r="E88" t="n">
-        <v>23599</v>
+        <v>111350</v>
       </c>
       <c r="F88" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G88" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>1567</v>
+        <v>913</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
       <c r="E89" t="n">
-        <v>124991</v>
+        <v>2575</v>
       </c>
       <c r="F89" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G89" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>1562</v>
+        <v>913</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="E90" t="n">
-        <v>10214</v>
+        <v>101975</v>
       </c>
       <c r="F90" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G90" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>1560</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>489</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>490</v>
       </c>
       <c r="E91" t="n">
-        <v>101975</v>
+        <v>363</v>
       </c>
       <c r="F91" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G91" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>1560</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E92" t="n">
-        <v>23599</v>
+        <v>60106</v>
       </c>
       <c r="F92" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G92" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>1535</v>
+        <v>863</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>497</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" t="s">
+        <v>500</v>
+      </c>
+      <c r="E93" t="n">
+        <v>29230</v>
+      </c>
+      <c r="F93" t="s">
+        <v>501</v>
+      </c>
+      <c r="G93" t="s">
         <v>502</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C93" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" t="s">
-        <v>58</v>
-      </c>
-      <c r="E93" t="n">
-        <v>20290</v>
-      </c>
-      <c r="F93" t="s">
-        <v>504</v>
-      </c>
-      <c r="G93" t="s">
-        <v>505</v>
       </c>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>1522</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>503</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C94" t="s">
+        <v>505</v>
+      </c>
+      <c r="D94" t="s">
         <v>506</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="E94" t="n">
+        <v>13342</v>
+      </c>
+      <c r="F94" t="s">
         <v>507</v>
       </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>508</v>
-      </c>
-      <c r="D94" t="s">
-        <v>509</v>
-      </c>
-      <c r="E94" t="n">
-        <v>19544</v>
-      </c>
-      <c r="F94" t="s">
-        <v>510</v>
-      </c>
-      <c r="G94" t="s">
-        <v>511</v>
       </c>
       <c r="H94"/>
       <c r="I94" t="n">
-        <v>1518</v>
+        <v>855</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>509</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15020</v>
+      </c>
+      <c r="F95" t="s">
+        <v>511</v>
+      </c>
+      <c r="G95" t="s">
         <v>512</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C95" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" t="n">
-        <v>12775</v>
-      </c>
-      <c r="F95" t="s">
-        <v>514</v>
-      </c>
-      <c r="G95" t="s">
-        <v>515</v>
       </c>
       <c r="H95"/>
       <c r="I95" t="n">
-        <v>1503</v>
+        <v>852</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>513</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10214</v>
+      </c>
+      <c r="F96" t="s">
+        <v>515</v>
+      </c>
+      <c r="G96" t="s">
         <v>516</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C96" t="s">
-        <v>518</v>
-      </c>
-      <c r="D96" t="s">
-        <v>519</v>
-      </c>
-      <c r="E96" t="n">
-        <v>17870</v>
-      </c>
-      <c r="F96" t="s">
-        <v>520</v>
-      </c>
-      <c r="G96" t="s">
-        <v>521</v>
       </c>
       <c r="H96"/>
       <c r="I96" t="n">
-        <v>1492</v>
+        <v>831</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>517</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C97" t="s">
+        <v>519</v>
+      </c>
+      <c r="D97" t="s">
+        <v>520</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1786</v>
+      </c>
+      <c r="F97" t="s">
+        <v>521</v>
+      </c>
+      <c r="G97" t="s">
         <v>522</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C97" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" t="n">
-        <v>12775</v>
-      </c>
-      <c r="F97" t="s">
-        <v>524</v>
-      </c>
-      <c r="G97" t="s">
-        <v>525</v>
       </c>
       <c r="H97"/>
       <c r="I97" t="n">
-        <v>1484</v>
+        <v>828</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>523</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="n">
+        <v>60106</v>
+      </c>
+      <c r="F98" t="s">
+        <v>525</v>
+      </c>
+      <c r="G98" t="s">
         <v>526</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="H98" t="s">
         <v>527</v>
       </c>
-      <c r="C98" t="s">
-        <v>528</v>
-      </c>
-      <c r="D98" t="s">
-        <v>529</v>
-      </c>
-      <c r="E98" t="n">
-        <v>22536</v>
-      </c>
-      <c r="F98" t="s">
-        <v>530</v>
-      </c>
-      <c r="G98" t="s">
-        <v>531</v>
-      </c>
-      <c r="H98"/>
       <c r="I98" t="n">
-        <v>1477</v>
+        <v>816</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>528</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C99" t="s">
+        <v>530</v>
+      </c>
+      <c r="D99" t="s">
+        <v>531</v>
+      </c>
+      <c r="E99" t="n">
+        <v>53419</v>
+      </c>
+      <c r="F99" t="s">
         <v>532</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="G99" t="s">
         <v>533</v>
       </c>
-      <c r="C99" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="n">
-        <v>19805</v>
-      </c>
-      <c r="F99" t="s">
-        <v>534</v>
-      </c>
-      <c r="G99" t="s">
-        <v>535</v>
-      </c>
-      <c r="H99" t="s">
-        <v>536</v>
-      </c>
+      <c r="H99"/>
       <c r="I99" t="n">
-        <v>1475</v>
+        <v>816</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="E100" t="n">
         <v>10214</v>
       </c>
       <c r="F100" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G100" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="n">
-        <v>1466</v>
+        <v>815</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23599</v>
+      </c>
+      <c r="F101" t="s">
+        <v>540</v>
+      </c>
+      <c r="G101" t="s">
         <v>541</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C101" t="s">
-        <v>543</v>
-      </c>
-      <c r="D101" t="s">
-        <v>544</v>
-      </c>
-      <c r="E101" t="n">
-        <v>4910</v>
-      </c>
-      <c r="F101" t="s">
-        <v>545</v>
-      </c>
-      <c r="G101" t="s">
-        <v>546</v>
       </c>
       <c r="H101"/>
       <c r="I101" t="n">
-        <v>1464</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
